--- a/results/mp/tinybert/toy-spam/confidence/168/stop-words-masking-0.2/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/168/stop-words-masking-0.2/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="143">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,280 +43,280 @@
     <t>poorly</t>
   </si>
   <si>
+    <t>disappointing</t>
+  </si>
+  <si>
     <t>crap</t>
   </si>
   <si>
-    <t>disappointing</t>
-  </si>
-  <si>
-    <t>loose</t>
+    <t>thin</t>
+  </si>
+  <si>
+    <t>however</t>
   </si>
   <si>
     <t>poor</t>
   </si>
   <si>
-    <t>thin</t>
-  </si>
-  <si>
     <t>inches</t>
   </si>
   <si>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>disappointment</t>
+  </si>
+  <si>
+    <t>junk</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>ripped</t>
+  </si>
+  <si>
+    <t>waste</t>
+  </si>
+  <si>
+    <t>pool</t>
+  </si>
+  <si>
+    <t>broke</t>
+  </si>
+  <si>
+    <t>instead</t>
+  </si>
+  <si>
     <t>returned</t>
   </si>
   <si>
-    <t>ripped</t>
-  </si>
-  <si>
-    <t>however</t>
-  </si>
-  <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>waste</t>
-  </si>
-  <si>
-    <t>broke</t>
-  </si>
-  <si>
-    <t>junk</t>
-  </si>
-  <si>
-    <t>water</t>
-  </si>
-  <si>
-    <t>boring</t>
-  </si>
-  <si>
-    <t>pool</t>
+    <t>worst</t>
   </si>
   <si>
     <t>tiny</t>
   </si>
   <si>
-    <t>instead</t>
+    <t>noise</t>
   </si>
   <si>
     <t>smaller</t>
   </si>
   <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>guess</t>
+  </si>
+  <si>
     <t>small</t>
   </si>
   <si>
-    <t>guess</t>
+    <t>broken</t>
+  </si>
+  <si>
+    <t>probably</t>
   </si>
   <si>
     <t>missing</t>
   </si>
   <si>
-    <t>probably</t>
+    <t>short</t>
+  </si>
+  <si>
+    <t>paint</t>
+  </si>
+  <si>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>lasted</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>half</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>cheap</t>
+  </si>
+  <si>
+    <t>un</t>
+  </si>
+  <si>
+    <t>less</t>
   </si>
   <si>
     <t>pay</t>
   </si>
   <si>
-    <t>okay</t>
+    <t>apart</t>
+  </si>
+  <si>
+    <t>difficult</t>
   </si>
   <si>
     <t>di</t>
   </si>
   <si>
-    <t>apart</t>
-  </si>
-  <si>
-    <t>broken</t>
-  </si>
-  <si>
-    <t>plastic</t>
+    <t>fl</t>
+  </si>
+  <si>
+    <t>return</t>
+  </si>
+  <si>
+    <t>bit</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>thought</t>
+  </si>
+  <si>
+    <t>tried</t>
+  </si>
+  <si>
+    <t>sound</t>
   </si>
   <si>
     <t>fell</t>
   </si>
   <si>
-    <t>short</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>lasted</t>
-  </si>
-  <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>un</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>half</t>
-  </si>
-  <si>
-    <t>less</t>
-  </si>
-  <si>
-    <t>fl</t>
-  </si>
-  <si>
-    <t>paint</t>
-  </si>
-  <si>
-    <t>seem</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>thought</t>
-  </si>
-  <si>
-    <t>return</t>
-  </si>
-  <si>
-    <t>bit</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>tried</t>
-  </si>
-  <si>
-    <t>actually</t>
+    <t>size</t>
   </si>
   <si>
     <t>minutes</t>
   </si>
   <si>
-    <t>size</t>
-  </si>
-  <si>
-    <t>sound</t>
-  </si>
-  <si>
-    <t>color</t>
-  </si>
-  <si>
     <t>though</t>
   </si>
   <si>
+    <t>parts</t>
+  </si>
+  <si>
+    <t>nothing</t>
+  </si>
+  <si>
+    <t>back</t>
+  </si>
+  <si>
     <t>money</t>
   </si>
   <si>
-    <t>rec</t>
-  </si>
-  <si>
-    <t>back</t>
-  </si>
-  <si>
-    <t>hold</t>
-  </si>
-  <si>
-    <t>seems</t>
+    <t>work</t>
   </si>
   <si>
     <t>item</t>
   </si>
   <si>
+    <t>hard</t>
+  </si>
+  <si>
     <t>would</t>
   </si>
   <si>
-    <t>hard</t>
+    <t>price</t>
   </si>
   <si>
     <t>could</t>
   </si>
   <si>
-    <t>price</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
+    <t>used</t>
+  </si>
+  <si>
+    <t>picture</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
     <t>better</t>
   </si>
   <si>
+    <t>look</t>
+  </si>
+  <si>
     <t>worked</t>
   </si>
   <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>fit</t>
-  </si>
-  <si>
-    <t>picture</t>
-  </si>
-  <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>look</t>
+    <t>pieces</t>
+  </si>
+  <si>
+    <t>box</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>product</t>
+    <t>2</t>
+  </si>
+  <si>
+    <t>put</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>buy</t>
   </si>
   <si>
     <t>expected</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>use</t>
   </si>
   <si>
-    <t>box</t>
-  </si>
-  <si>
-    <t>pieces</t>
-  </si>
-  <si>
-    <t>5</t>
+    <t>34</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>made</t>
   </si>
   <si>
     <t>little</t>
   </si>
   <si>
+    <t>even</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
     <t>two</t>
   </si>
   <si>
-    <t>think</t>
-  </si>
-  <si>
-    <t>first</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>even</t>
-  </si>
-  <si>
-    <t>like</t>
+    <t>toy</t>
+  </si>
+  <si>
+    <t>much</t>
   </si>
   <si>
     <t>one</t>
   </si>
   <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>toy</t>
-  </si>
-  <si>
     <t>get</t>
   </si>
   <si>
-    <t>really</t>
+    <t>got</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>old</t>
   </si>
   <si>
     <t>negative</t>
@@ -328,121 +328,115 @@
     <t>wonderful</t>
   </si>
   <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>fantastic</t>
+  </si>
+  <si>
+    <t>favorite</t>
+  </si>
+  <si>
+    <t>excellent</t>
+  </si>
+  <si>
     <t>enjoyable</t>
   </si>
   <si>
-    <t>favorite</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>excellent</t>
-  </si>
-  <si>
-    <t>fantastic</t>
-  </si>
-  <si>
     <t>classic</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>loves</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>expansion</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>pleased</t>
   </si>
   <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>friends</t>
   </si>
   <si>
-    <t>expansion</t>
-  </si>
-  <si>
-    <t>grandchildren</t>
-  </si>
-  <si>
-    <t>highly</t>
+    <t>thanks</t>
   </si>
   <si>
     <t>learn</t>
   </si>
   <si>
+    <t>christmas</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
+    <t>every</t>
+  </si>
+  <si>
+    <t>enjoyed</t>
+  </si>
+  <si>
+    <t>enjoy</t>
+  </si>
+  <si>
     <t>sturdy</t>
   </si>
   <si>
-    <t>enjoyed</t>
-  </si>
-  <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>enjoy</t>
-  </si>
-  <si>
     <t>fun</t>
   </si>
   <si>
-    <t>every</t>
-  </si>
-  <si>
     <t>book</t>
   </si>
   <si>
-    <t>games</t>
+    <t>family</t>
+  </si>
+  <si>
+    <t>easy</t>
   </si>
   <si>
     <t>game</t>
   </si>
   <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>easy</t>
+    <t>cute</t>
   </si>
   <si>
     <t>nice</t>
   </si>
   <si>
-    <t>cute</t>
-  </si>
-  <si>
-    <t>grandson</t>
-  </si>
-  <si>
     <t>playing</t>
   </si>
   <si>
     <t>play</t>
   </si>
   <si>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
     <t>well</t>
   </si>
   <si>
-    <t>year</t>
-  </si>
-  <si>
-    <t>kids</t>
+    <t>son</t>
   </si>
   <si>
     <t>good</t>
@@ -817,7 +811,7 @@
         <v>101</v>
       </c>
       <c r="J1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -875,13 +869,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9565217391304348</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="C3">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D3">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -893,19 +887,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>102</v>
       </c>
       <c r="K3">
-        <v>0.9076923076923077</v>
+        <v>0.8769230769230769</v>
       </c>
       <c r="L3">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M3">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -917,7 +911,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -925,13 +919,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8571428571428571</v>
+        <v>0.7954545454545454</v>
       </c>
       <c r="C4">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="D4">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -943,7 +937,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>103</v>
@@ -975,13 +969,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7954545454545454</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="C5">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="D5">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -993,19 +987,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>104</v>
       </c>
       <c r="K5">
-        <v>0.8333333333333334</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="L5">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="M5">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -1025,13 +1019,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7826086956521739</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="C6">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D6">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1043,19 +1037,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>105</v>
       </c>
       <c r="K6">
-        <v>0.8279569892473119</v>
+        <v>0.85</v>
       </c>
       <c r="L6">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="M6">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1067,7 +1061,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1075,13 +1069,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7605633802816901</v>
+        <v>0.734375</v>
       </c>
       <c r="C7">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D7">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1099,13 +1093,13 @@
         <v>106</v>
       </c>
       <c r="K7">
-        <v>0.8148148148148148</v>
+        <v>0.8172043010752689</v>
       </c>
       <c r="L7">
-        <v>22</v>
+        <v>76</v>
       </c>
       <c r="M7">
-        <v>22</v>
+        <v>76</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1117,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1125,13 +1119,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7586206896551724</v>
+        <v>0.7323943661971831</v>
       </c>
       <c r="C8">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="D8">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1143,19 +1137,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>107</v>
       </c>
       <c r="K8">
-        <v>0.78125</v>
+        <v>0.75</v>
       </c>
       <c r="L8">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M8">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1167,7 +1161,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1199,13 +1193,13 @@
         <v>108</v>
       </c>
       <c r="K9">
-        <v>0.75</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L9">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M9">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1217,7 +1211,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1225,13 +1219,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7105263157894737</v>
+        <v>0.7258064516129032</v>
       </c>
       <c r="C10">
-        <v>27</v>
+        <v>135</v>
       </c>
       <c r="D10">
-        <v>27</v>
+        <v>135</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1243,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>109</v>
@@ -1275,13 +1269,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7037037037037037</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="C11">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D11">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1293,19 +1287,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>110</v>
       </c>
       <c r="K11">
-        <v>0.5796269727403156</v>
+        <v>0.5797101449275363</v>
       </c>
       <c r="L11">
-        <v>404</v>
+        <v>40</v>
       </c>
       <c r="M11">
-        <v>404</v>
+        <v>40</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1317,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>293</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1325,13 +1319,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6875</v>
+        <v>0.7090909090909091</v>
       </c>
       <c r="C12">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D12">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1343,19 +1337,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>111</v>
       </c>
       <c r="K12">
-        <v>0.5507246376811594</v>
+        <v>0.5566714490674318</v>
       </c>
       <c r="L12">
-        <v>38</v>
+        <v>388</v>
       </c>
       <c r="M12">
-        <v>38</v>
+        <v>388</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1367,7 +1361,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>31</v>
+        <v>309</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1375,13 +1369,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6827956989247311</v>
+        <v>0.6904761904761905</v>
       </c>
       <c r="C13">
-        <v>127</v>
+        <v>29</v>
       </c>
       <c r="D13">
-        <v>127</v>
+        <v>29</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1393,7 +1387,7 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>112</v>
@@ -1425,13 +1419,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6621621621621622</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C14">
-        <v>98</v>
+        <v>18</v>
       </c>
       <c r="D14">
-        <v>98</v>
+        <v>18</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1443,19 +1437,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>113</v>
       </c>
       <c r="K14">
-        <v>0.4836065573770492</v>
+        <v>0.4901639344262295</v>
       </c>
       <c r="L14">
-        <v>590</v>
+        <v>598</v>
       </c>
       <c r="M14">
-        <v>590</v>
+        <v>598</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1467,7 +1461,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>630</v>
+        <v>622</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1475,13 +1469,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6601941747572816</v>
+        <v>0.6621621621621622</v>
       </c>
       <c r="C15">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="D15">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1493,19 +1487,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>114</v>
       </c>
       <c r="K15">
-        <v>0.4150943396226415</v>
+        <v>0.3761467889908257</v>
       </c>
       <c r="L15">
-        <v>22</v>
+        <v>123</v>
       </c>
       <c r="M15">
-        <v>22</v>
+        <v>123</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1517,7 +1511,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>31</v>
+        <v>204</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1525,13 +1519,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6363636363636364</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="C16">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D16">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1543,19 +1537,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>115</v>
       </c>
       <c r="K16">
-        <v>0.3915662650602409</v>
+        <v>0.3404255319148936</v>
       </c>
       <c r="L16">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="M16">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1567,7 +1561,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>101</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1575,13 +1569,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5952380952380952</v>
+        <v>0.6553398058252428</v>
       </c>
       <c r="C17">
-        <v>25</v>
+        <v>135</v>
       </c>
       <c r="D17">
-        <v>25</v>
+        <v>135</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1593,19 +1587,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>116</v>
       </c>
       <c r="K17">
-        <v>0.382262996941896</v>
+        <v>0.3373493975903614</v>
       </c>
       <c r="L17">
-        <v>125</v>
+        <v>56</v>
       </c>
       <c r="M17">
-        <v>125</v>
+        <v>56</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1617,7 +1611,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>202</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1625,13 +1619,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5555555555555556</v>
+        <v>0.625</v>
       </c>
       <c r="C18">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D18">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1643,19 +1637,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>117</v>
       </c>
       <c r="K18">
-        <v>0.35</v>
+        <v>0.3166666666666667</v>
       </c>
       <c r="L18">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="M18">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1667,7 +1661,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1675,13 +1669,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5428571428571428</v>
+        <v>0.6052631578947368</v>
       </c>
       <c r="C19">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D19">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1693,19 +1687,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>118</v>
       </c>
       <c r="K19">
-        <v>0.3227513227513227</v>
+        <v>0.3018867924528302</v>
       </c>
       <c r="L19">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="M19">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1717,7 +1711,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>128</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1725,13 +1719,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5428571428571428</v>
+        <v>0.6</v>
       </c>
       <c r="C20">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D20">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1743,19 +1737,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>119</v>
       </c>
       <c r="K20">
-        <v>0.3191489361702128</v>
+        <v>0.2962962962962963</v>
       </c>
       <c r="L20">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="M20">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1767,7 +1761,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>32</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1775,13 +1769,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5416666666666666</v>
+        <v>0.6</v>
       </c>
       <c r="C21">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D21">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1793,19 +1787,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>120</v>
       </c>
       <c r="K21">
-        <v>0.2727272727272727</v>
+        <v>0.288135593220339</v>
       </c>
       <c r="L21">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M21">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1817,7 +1811,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1825,13 +1819,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5294117647058824</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="C22">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="D22">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1843,31 +1837,31 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>121</v>
       </c>
       <c r="K22">
-        <v>0.25</v>
+        <v>0.265625</v>
       </c>
       <c r="L22">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="M22">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="N22">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O22">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>57</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1875,13 +1869,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.518840579710145</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="C23">
-        <v>179</v>
+        <v>70</v>
       </c>
       <c r="D23">
-        <v>179</v>
+        <v>70</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1893,31 +1887,31 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>166</v>
+        <v>49</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>122</v>
       </c>
       <c r="K23">
-        <v>0.2421875</v>
+        <v>0.2137096774193548</v>
       </c>
       <c r="L23">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="M23">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="N23">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q23">
-        <v>97</v>
+        <v>195</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1925,13 +1919,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.5</v>
+        <v>0.5483870967741935</v>
       </c>
       <c r="C24">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D24">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1943,19 +1937,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>123</v>
       </c>
       <c r="K24">
-        <v>0.2377622377622378</v>
+        <v>0.2027972027972028</v>
       </c>
       <c r="L24">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="M24">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1967,7 +1961,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>109</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1975,13 +1969,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.4888888888888889</v>
+        <v>0.5370370370370371</v>
       </c>
       <c r="C25">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D25">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1993,19 +1987,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>124</v>
       </c>
       <c r="K25">
-        <v>0.2183908045977012</v>
+        <v>0.2</v>
       </c>
       <c r="L25">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="M25">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -2017,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>68</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -2025,13 +2019,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.4473684210526316</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="C26">
-        <v>17</v>
+        <v>184</v>
       </c>
       <c r="D26">
-        <v>17</v>
+        <v>184</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2043,19 +2037,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>21</v>
+        <v>161</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>125</v>
       </c>
       <c r="K26">
-        <v>0.2063492063492063</v>
+        <v>0.1825396825396825</v>
       </c>
       <c r="L26">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M26">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -2067,7 +2061,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2075,13 +2069,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.4444444444444444</v>
+        <v>0.5060240963855421</v>
       </c>
       <c r="C27">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D27">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2093,19 +2087,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>126</v>
       </c>
       <c r="K27">
-        <v>0.2048192771084337</v>
+        <v>0.1774193548387097</v>
       </c>
       <c r="L27">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="M27">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2117,7 +2111,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>198</v>
+        <v>153</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2125,13 +2119,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.4259259259259259</v>
+        <v>0.5</v>
       </c>
       <c r="C28">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D28">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2143,19 +2137,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>127</v>
       </c>
       <c r="K28">
-        <v>0.2043010752688172</v>
+        <v>0.1724137931034483</v>
       </c>
       <c r="L28">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="M28">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2167,7 +2161,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>148</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2175,13 +2169,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.421875</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="C29">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D29">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2193,19 +2187,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>128</v>
       </c>
       <c r="K29">
-        <v>0.1675438596491228</v>
+        <v>0.1710526315789474</v>
       </c>
       <c r="L29">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="M29">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="N29">
         <v>0.99</v>
@@ -2217,7 +2211,7 @@
         <v>1</v>
       </c>
       <c r="Q29">
-        <v>949</v>
+        <v>945</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2225,13 +2219,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.4105263157894737</v>
+        <v>0.4693877551020408</v>
       </c>
       <c r="C30">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="D30">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2243,19 +2237,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>129</v>
       </c>
       <c r="K30">
-        <v>0.152</v>
+        <v>0.1103896103896104</v>
       </c>
       <c r="L30">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M30">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2267,7 +2261,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>106</v>
+        <v>137</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2275,37 +2269,37 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.4096385542168675</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="C31">
+        <v>29</v>
+      </c>
+      <c r="D31">
+        <v>29</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31" t="b">
+        <v>0</v>
+      </c>
+      <c r="H31">
         <v>34</v>
-      </c>
-      <c r="D31">
-        <v>34</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>49</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>130</v>
       </c>
       <c r="K31">
-        <v>0.1363636363636364</v>
+        <v>0.1086350974930362</v>
       </c>
       <c r="L31">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="M31">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2317,7 +2311,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>133</v>
+        <v>320</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2325,13 +2319,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.4094488188976378</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="C32">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="D32">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2343,31 +2337,31 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>131</v>
       </c>
       <c r="K32">
-        <v>0.1075949367088608</v>
+        <v>0.1042780748663102</v>
       </c>
       <c r="L32">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="M32">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="N32">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="O32">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="P32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32">
-        <v>141</v>
+        <v>335</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2375,13 +2369,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.4</v>
+        <v>0.4330708661417323</v>
       </c>
       <c r="C33">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="D33">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2393,31 +2387,31 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>132</v>
       </c>
       <c r="K33">
-        <v>0.1027976577748861</v>
+        <v>0.09941520467836257</v>
       </c>
       <c r="L33">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="M33">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="N33">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="O33">
-        <v>0.02000000000000002</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P33" t="b">
         <v>1</v>
       </c>
       <c r="Q33">
-        <v>1379</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2425,13 +2419,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.3877551020408163</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C34">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D34">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2443,19 +2437,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>133</v>
       </c>
       <c r="K34">
-        <v>0.09192200557103064</v>
+        <v>0.07392996108949416</v>
       </c>
       <c r="L34">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="M34">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2467,7 +2461,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>326</v>
+        <v>238</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2475,13 +2469,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.3828125</v>
+        <v>0.4102564102564102</v>
       </c>
       <c r="C35">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="D35">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2493,31 +2487,31 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>79</v>
+        <v>23</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>134</v>
       </c>
       <c r="K35">
-        <v>0.07754010695187166</v>
+        <v>0.06920415224913495</v>
       </c>
       <c r="L35">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="M35">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="N35">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O35">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q35">
-        <v>345</v>
+        <v>269</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2525,13 +2519,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.3809523809523809</v>
+        <v>0.4074074074074074</v>
       </c>
       <c r="C36">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D36">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2543,19 +2537,19 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="J36" s="1" t="s">
         <v>135</v>
       </c>
       <c r="K36">
-        <v>0.07241379310344828</v>
+        <v>0.06790123456790123</v>
       </c>
       <c r="L36">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M36">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2567,7 +2561,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>269</v>
+        <v>302</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2575,13 +2569,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.3744075829383886</v>
+        <v>0.40625</v>
       </c>
       <c r="C37">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="D37">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2593,31 +2587,31 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>132</v>
+        <v>76</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>136</v>
       </c>
       <c r="K37">
-        <v>0.06614785992217899</v>
+        <v>0.06141522029372497</v>
       </c>
       <c r="L37">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="M37">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="N37">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O37">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q37">
-        <v>240</v>
+        <v>703</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2625,13 +2619,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.3720930232558139</v>
+        <v>0.3981042654028436</v>
       </c>
       <c r="C38">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="D38">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2643,31 +2637,31 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>27</v>
+        <v>127</v>
       </c>
       <c r="J38" s="1" t="s">
         <v>137</v>
       </c>
       <c r="K38">
-        <v>0.06389776357827476</v>
+        <v>0.04966887417218543</v>
       </c>
       <c r="L38">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M38">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="N38">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O38">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q38">
-        <v>293</v>
+        <v>287</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2675,7 +2669,7 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.3541666666666667</v>
+        <v>0.3953488372093023</v>
       </c>
       <c r="C39">
         <v>17</v>
@@ -2693,31 +2687,31 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="J39" s="1" t="s">
         <v>138</v>
       </c>
       <c r="K39">
-        <v>0.05864197530864197</v>
+        <v>0.04435483870967742</v>
       </c>
       <c r="L39">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M39">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="N39">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="O39">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="P39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q39">
-        <v>305</v>
+        <v>474</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2725,13 +2719,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.3518518518518519</v>
+        <v>0.3666666666666666</v>
       </c>
       <c r="C40">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D40">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2743,31 +2737,31 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="J40" s="1" t="s">
         <v>139</v>
       </c>
       <c r="K40">
-        <v>0.05607476635514019</v>
+        <v>0.04081632653061224</v>
       </c>
       <c r="L40">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="M40">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="N40">
-        <v>0.93</v>
+        <v>0.8</v>
       </c>
       <c r="O40">
-        <v>0.06999999999999995</v>
+        <v>0.2</v>
       </c>
       <c r="P40" t="b">
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>707</v>
+        <v>376</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2775,13 +2769,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.35</v>
+        <v>0.3650793650793651</v>
       </c>
       <c r="C41">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D41">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2793,31 +2787,31 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J41" s="1" t="s">
         <v>140</v>
       </c>
       <c r="K41">
-        <v>0.04347826086956522</v>
+        <v>0.03488372093023256</v>
       </c>
       <c r="L41">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M41">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="N41">
-        <v>0.77</v>
+        <v>0.83</v>
       </c>
       <c r="O41">
-        <v>0.23</v>
+        <v>0.17</v>
       </c>
       <c r="P41" t="b">
         <v>1</v>
       </c>
       <c r="Q41">
-        <v>374</v>
+        <v>415</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2825,13 +2819,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.3448275862068966</v>
+        <v>0.3578947368421053</v>
       </c>
       <c r="C42">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D42">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2843,31 +2837,31 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="J42" s="1" t="s">
         <v>141</v>
       </c>
       <c r="K42">
-        <v>0.03420523138832998</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="L42">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M42">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N42">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="O42">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="P42" t="b">
         <v>1</v>
       </c>
       <c r="Q42">
-        <v>480</v>
+        <v>684</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2875,13 +2869,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.3333333333333333</v>
+        <v>0.3370786516853932</v>
       </c>
       <c r="C43">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D43">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2893,31 +2887,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>42</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="K43">
-        <v>0.03197158081705151</v>
-      </c>
-      <c r="L43">
-        <v>18</v>
-      </c>
-      <c r="M43">
-        <v>20</v>
-      </c>
-      <c r="N43">
-        <v>0.9</v>
-      </c>
-      <c r="O43">
-        <v>0.09999999999999998</v>
-      </c>
-      <c r="P43" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q43">
-        <v>545</v>
+        <v>59</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -2925,13 +2895,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.3061224489795918</v>
+        <v>0.328125</v>
       </c>
       <c r="C44">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D44">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2943,31 +2913,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>34</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="K44">
-        <v>0.02995720399429386</v>
-      </c>
-      <c r="L44">
-        <v>21</v>
-      </c>
-      <c r="M44">
-        <v>25</v>
-      </c>
-      <c r="N44">
-        <v>0.84</v>
-      </c>
-      <c r="O44">
-        <v>0.16</v>
-      </c>
-      <c r="P44" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q44">
-        <v>680</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -2975,13 +2921,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.2985074626865671</v>
+        <v>0.3103448275862069</v>
       </c>
       <c r="C45">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D45">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2993,7 +2939,7 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -3001,13 +2947,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.297029702970297</v>
+        <v>0.2903225806451613</v>
       </c>
       <c r="C46">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="D46">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -3019,7 +2965,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>142</v>
+        <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -3027,13 +2973,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.2903225806451613</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C47">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D47">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -3045,7 +2991,7 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>44</v>
+        <v>70</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -3053,13 +2999,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.2857142857142857</v>
+        <v>0.2835820895522388</v>
       </c>
       <c r="C48">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D48">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -3071,7 +3017,7 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>70</v>
+        <v>48</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3079,13 +3025,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.2808988764044944</v>
+        <v>0.2821782178217822</v>
       </c>
       <c r="C49">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="D49">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -3097,7 +3043,7 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>64</v>
+        <v>145</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3105,13 +3051,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.2622950819672131</v>
+        <v>0.2786885245901639</v>
       </c>
       <c r="C50">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D50">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -3123,7 +3069,7 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3131,13 +3077,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.25</v>
+        <v>0.2753623188405797</v>
       </c>
       <c r="C51">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D51">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -3149,7 +3095,7 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3157,13 +3103,13 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.2432432432432433</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="C52">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D52">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -3175,7 +3121,7 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>56</v>
+        <v>40</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3183,13 +3129,13 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.2422680412371134</v>
+        <v>0.2628865979381443</v>
       </c>
       <c r="C53">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D53">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -3201,7 +3147,7 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3209,13 +3155,13 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.2318840579710145</v>
+        <v>0.2567567567567567</v>
       </c>
       <c r="C54">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D54">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -3227,7 +3173,7 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3235,13 +3181,13 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.2266666666666667</v>
+        <v>0.2393162393162393</v>
       </c>
       <c r="C55">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D55">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -3253,7 +3199,7 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>58</v>
+        <v>89</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3261,13 +3207,13 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.2222222222222222</v>
+        <v>0.2173913043478261</v>
       </c>
       <c r="C56">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D56">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -3279,7 +3225,7 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>91</v>
+        <v>54</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3287,13 +3233,13 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.2120253164556962</v>
+        <v>0.2087912087912088</v>
       </c>
       <c r="C57">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="D57">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -3305,7 +3251,7 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>249</v>
+        <v>72</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3313,13 +3259,13 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.2112676056338028</v>
+        <v>0.2</v>
       </c>
       <c r="C58">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D58">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -3331,7 +3277,7 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>56</v>
+        <v>112</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3339,13 +3285,13 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.2071428571428572</v>
+        <v>0.1993670886075949</v>
       </c>
       <c r="C59">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="D59">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -3357,7 +3303,7 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <v>111</v>
+        <v>253</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3365,13 +3311,13 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2027027027027027</v>
+        <v>0.1962025316455696</v>
       </c>
       <c r="C60">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="D60">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -3383,7 +3329,7 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>59</v>
+        <v>254</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3391,13 +3337,13 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.2027027027027027</v>
+        <v>0.1956521739130435</v>
       </c>
       <c r="C61">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="D61">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -3409,7 +3355,7 @@
         <v>0</v>
       </c>
       <c r="H61">
-        <v>59</v>
+        <v>222</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3417,13 +3363,13 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.1920289855072464</v>
+        <v>0.195</v>
       </c>
       <c r="C62">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="D62">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -3435,7 +3381,7 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <v>223</v>
+        <v>161</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3443,13 +3389,13 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.1887072808320951</v>
+        <v>0.1931649331352155</v>
       </c>
       <c r="C63">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D63">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E63">
         <v>0.01</v>
@@ -3461,7 +3407,7 @@
         <v>1</v>
       </c>
       <c r="H63">
-        <v>546</v>
+        <v>543</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3469,25 +3415,25 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.18</v>
+        <v>0.1786743515850144</v>
       </c>
       <c r="C64">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="D64">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F64">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H64">
-        <v>164</v>
+        <v>285</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3521,25 +3467,25 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.175792507204611</v>
+        <v>0.1779661016949153</v>
       </c>
       <c r="C66">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="D66">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="E66">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F66">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H66">
-        <v>286</v>
+        <v>97</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3547,25 +3493,25 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.1694915254237288</v>
+        <v>0.1724137931034483</v>
       </c>
       <c r="C67">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D67">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F67">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H67">
-        <v>98</v>
+        <v>144</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3573,13 +3519,13 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.1635514018691589</v>
+        <v>0.1649484536082474</v>
       </c>
       <c r="C68">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="D68">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -3591,7 +3537,7 @@
         <v>0</v>
       </c>
       <c r="H68">
-        <v>179</v>
+        <v>81</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3599,25 +3545,25 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.1588785046728972</v>
+        <v>0.1611479028697572</v>
       </c>
       <c r="C69">
-        <v>17</v>
+        <v>73</v>
       </c>
       <c r="D69">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="E69">
-        <v>0.06</v>
+        <v>0.01</v>
       </c>
       <c r="F69">
-        <v>0.9399999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="G69" t="b">
         <v>1</v>
       </c>
       <c r="H69">
-        <v>90</v>
+        <v>380</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3625,13 +3571,13 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.1550632911392405</v>
+        <v>0.1588785046728972</v>
       </c>
       <c r="C70">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="D70">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -3643,7 +3589,7 @@
         <v>0</v>
       </c>
       <c r="H70">
-        <v>267</v>
+        <v>180</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3651,25 +3597,25 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.154639175257732</v>
+        <v>0.1496062992125984</v>
       </c>
       <c r="C71">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D71">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F71">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H71">
-        <v>82</v>
+        <v>108</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3677,7 +3623,7 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.154639175257732</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="C72">
         <v>15</v>
@@ -3695,7 +3641,7 @@
         <v>0</v>
       </c>
       <c r="H72">
-        <v>82</v>
+        <v>93</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3703,13 +3649,13 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.1542857142857143</v>
+        <v>0.1311475409836066</v>
       </c>
       <c r="C73">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D73">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -3721,7 +3667,7 @@
         <v>0</v>
       </c>
       <c r="H73">
-        <v>148</v>
+        <v>159</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3729,13 +3675,13 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.140625</v>
+        <v>0.1256544502617801</v>
       </c>
       <c r="C74">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D74">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -3747,7 +3693,7 @@
         <v>0</v>
       </c>
       <c r="H74">
-        <v>110</v>
+        <v>167</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3755,25 +3701,25 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.1382113821138211</v>
+        <v>0.125</v>
       </c>
       <c r="C75">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D75">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E75">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="F75">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="G75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H75">
-        <v>212</v>
+        <v>217</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3781,13 +3727,13 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1277533039647577</v>
+        <v>0.1198501872659176</v>
       </c>
       <c r="C76">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="D76">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -3799,7 +3745,7 @@
         <v>0</v>
       </c>
       <c r="H76">
-        <v>396</v>
+        <v>235</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3807,13 +3753,13 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.125</v>
+        <v>0.1103896103896104</v>
       </c>
       <c r="C77">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D77">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -3825,7 +3771,7 @@
         <v>0</v>
       </c>
       <c r="H77">
-        <v>168</v>
+        <v>137</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3833,25 +3779,25 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.1235955056179775</v>
+        <v>0.106951871657754</v>
       </c>
       <c r="C78">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="D78">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="E78">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="F78">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="G78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H78">
-        <v>234</v>
+        <v>167</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3859,13 +3805,13 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.1178082191780822</v>
+        <v>0.1042253521126761</v>
       </c>
       <c r="C79">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D79">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -3877,7 +3823,7 @@
         <v>0</v>
       </c>
       <c r="H79">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3885,13 +3831,13 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.1099476439790576</v>
+        <v>0.1041666666666667</v>
       </c>
       <c r="C80">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D80">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -3903,7 +3849,7 @@
         <v>0</v>
       </c>
       <c r="H80">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3911,25 +3857,25 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1038251366120219</v>
+        <v>0.1016483516483516</v>
       </c>
       <c r="C81">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="D81">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="E81">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F81">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H81">
-        <v>164</v>
+        <v>327</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3937,25 +3883,25 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.1016042780748663</v>
+        <v>0.09554140127388536</v>
       </c>
       <c r="C82">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D82">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E82">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="F82">
-        <v>0.9</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G82" t="b">
         <v>1</v>
       </c>
       <c r="H82">
-        <v>168</v>
+        <v>142</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3963,25 +3909,25 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.09641255605381166</v>
+        <v>0.09142857142857143</v>
       </c>
       <c r="C83">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="D83">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="E83">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="F83">
-        <v>0.9299999999999999</v>
+        <v>1</v>
       </c>
       <c r="G83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H83">
-        <v>403</v>
+        <v>159</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3989,25 +3935,25 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.09326424870466321</v>
+        <v>0.08544303797468354</v>
       </c>
       <c r="C84">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D84">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E84">
-        <v>0.14</v>
+        <v>0.04</v>
       </c>
       <c r="F84">
-        <v>0.86</v>
+        <v>0.96</v>
       </c>
       <c r="G84" t="b">
         <v>1</v>
       </c>
       <c r="H84">
-        <v>175</v>
+        <v>289</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4015,25 +3961,25 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>0.09316770186335403</v>
+        <v>0.08258928571428571</v>
       </c>
       <c r="C85">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="D85">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="E85">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F85">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H85">
-        <v>146</v>
+        <v>411</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4041,25 +3987,25 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>0.09289617486338798</v>
+        <v>0.08214285714285714</v>
       </c>
       <c r="C86">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D86">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E86">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="F86">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="G86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H86">
-        <v>166</v>
+        <v>257</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4067,25 +4013,25 @@
         <v>92</v>
       </c>
       <c r="B87">
-        <v>0.09014084507042254</v>
+        <v>0.07755775577557755</v>
       </c>
       <c r="C87">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="D87">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="E87">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F87">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H87">
-        <v>323</v>
+        <v>559</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4093,25 +4039,25 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>0.07911392405063292</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="C88">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D88">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E88">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="F88">
-        <v>0.96</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G88" t="b">
         <v>1</v>
       </c>
       <c r="H88">
-        <v>291</v>
+        <v>180</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4119,25 +4065,25 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>0.07857142857142857</v>
+        <v>0.06769230769230769</v>
       </c>
       <c r="C89">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="D89">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="E89">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F89">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="G89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H89">
-        <v>258</v>
+        <v>606</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4145,25 +4091,25 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>0.07755775577557755</v>
+        <v>0.05647058823529412</v>
       </c>
       <c r="C90">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="D90">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="E90">
-        <v>0.04</v>
+        <v>0.27</v>
       </c>
       <c r="F90">
-        <v>0.96</v>
+        <v>0.73</v>
       </c>
       <c r="G90" t="b">
         <v>1</v>
       </c>
       <c r="H90">
-        <v>559</v>
+        <v>401</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4171,25 +4117,25 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>0.05491698595146871</v>
+        <v>0.05384615384615385</v>
       </c>
       <c r="C91">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D91">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E91">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="F91">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="G91" t="b">
         <v>1</v>
       </c>
       <c r="H91">
-        <v>740</v>
+        <v>738</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4197,25 +4143,25 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>0.05164319248826291</v>
+        <v>0.04929577464788732</v>
       </c>
       <c r="C92">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D92">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E92">
-        <v>0.27</v>
+        <v>0.12</v>
       </c>
       <c r="F92">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="G92" t="b">
         <v>1</v>
       </c>
       <c r="H92">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4223,25 +4169,25 @@
         <v>98</v>
       </c>
       <c r="B93">
-        <v>0.04622496147919877</v>
+        <v>0.04273504273504274</v>
       </c>
       <c r="C93">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D93">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="E93">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="F93">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="G93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H93">
-        <v>619</v>
+        <v>336</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4249,25 +4195,25 @@
         <v>99</v>
       </c>
       <c r="B94">
-        <v>0.03981264637002342</v>
+        <v>0.04100227790432802</v>
       </c>
       <c r="C94">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D94">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E94">
-        <v>0.11</v>
+        <v>0.31</v>
       </c>
       <c r="F94">
-        <v>0.89</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="G94" t="b">
         <v>1</v>
       </c>
       <c r="H94">
-        <v>410</v>
+        <v>421</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4275,25 +4221,25 @@
         <v>100</v>
       </c>
       <c r="B95">
-        <v>0.03440860215053763</v>
+        <v>0.02192982456140351</v>
       </c>
       <c r="C95">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D95">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E95">
-        <v>0.2</v>
+        <v>0.35</v>
       </c>
       <c r="F95">
-        <v>0.8</v>
+        <v>0.65</v>
       </c>
       <c r="G95" t="b">
         <v>1</v>
       </c>
       <c r="H95">
-        <v>449</v>
+        <v>669</v>
       </c>
     </row>
   </sheetData>
